--- a/Karate.xlsx
+++ b/Karate.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="21">
   <si>
     <t>pirmadienis</t>
   </si>
@@ -64,13 +64,28 @@
   </si>
   <si>
     <t>45 EUR</t>
+  </si>
+  <si>
+    <t>1212hfhhdxh</t>
+  </si>
+  <si>
+    <t>fhdhdhdh</t>
+  </si>
+  <si>
+    <t>hdfhdhdh</t>
+  </si>
+  <si>
+    <t>fgdfhfdhdfh</t>
+  </si>
+  <si>
+    <t>gdfhdfhfdhdfhdfhdfh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,7 +130,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -158,13 +173,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -182,6 +205,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -273,7 +300,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -308,7 +334,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -484,697 +509,712 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:U25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="18" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="2:21">
+      <c r="C1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
       <c r="K1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="2:18" ht="24" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
+    <row r="2" spans="2:21" ht="24">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="2:18" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4">
+      <c r="S2" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" ht="18.75">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3">
         <v>1</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>2</v>
       </c>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6">
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5">
         <v>1</v>
       </c>
       <c r="R3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:18" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="4">
+    <row r="4" spans="2:21" ht="18.75">
+      <c r="B4" s="3">
         <v>3</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>4</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>5</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>6</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>7</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>8</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>9</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="5">
         <v>2</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="5">
         <v>3</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="5">
         <v>4</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="5">
         <v>5</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O4" s="5">
         <v>6</v>
       </c>
-      <c r="P4" s="6">
+      <c r="P4" s="5">
         <v>7</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="Q4" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:18" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="4">
+    <row r="5" spans="2:21" ht="18.75">
+      <c r="B5" s="3">
         <v>10</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>11</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>12</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>13</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>14</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>15</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>16</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="3">
         <v>9</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="3">
         <v>10</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="3">
         <v>11</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="3">
         <v>12</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="3">
         <v>13</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="3">
         <v>14</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="2:18" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="4">
+      <c r="U5" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="4">
+    </row>
+    <row r="6" spans="2:21" ht="18.75">
+      <c r="B6" s="3">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3">
         <v>18</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>19</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>20</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>21</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>22</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>23</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="3">
         <v>16</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="3">
         <v>17</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="5">
         <v>18</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="5">
         <v>19</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6" s="5">
         <v>20</v>
       </c>
-      <c r="P6" s="6">
+      <c r="P6" s="5">
         <v>21</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="Q6" s="5">
         <v>22</v>
       </c>
       <c r="R6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:18" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="6">
+    <row r="7" spans="2:21" ht="18.75">
+      <c r="B7" s="5">
         <v>24</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>25</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>26</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>27</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>28</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>29</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <v>30</v>
       </c>
       <c r="I7" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="5">
         <v>23</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="5">
         <v>24</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="4">
         <v>25</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="4">
         <v>26</v>
       </c>
-      <c r="O7" s="5">
+      <c r="O7" s="4">
         <v>27</v>
       </c>
-      <c r="P7" s="5">
+      <c r="P7" s="4">
         <v>28</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="Q7" s="4">
         <v>29</v>
       </c>
       <c r="R7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="2:18" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="K8" s="5">
+    <row r="8" spans="2:21" ht="18.75">
+      <c r="K8" s="4">
         <v>30</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="4">
         <v>31</v>
       </c>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="S8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21">
       <c r="D9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:18" ht="24" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="s">
+    <row r="10" spans="2:21" ht="24">
+      <c r="B10" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="7" t="s">
         <v>6</v>
       </c>
       <c r="K10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="2:18" ht="24" x14ac:dyDescent="0.25">
-      <c r="B11" s="5"/>
-      <c r="C11" s="5">
+    <row r="11" spans="2:21" ht="24">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4">
         <v>1</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>2</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>3</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <v>4</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="4">
         <v>5</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="4">
         <v>6</v>
       </c>
       <c r="I11" t="s">
         <v>13</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="L11" s="8" t="s">
+      <c r="L11" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="M11" s="8" t="s">
+      <c r="M11" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="N11" s="8" t="s">
+      <c r="N11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="O11" s="8" t="s">
+      <c r="O11" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="P11" s="8" t="s">
+      <c r="P11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="Q11" s="8" t="s">
+      <c r="Q11" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="2:18" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="5">
+      <c r="S11" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" ht="18.75">
+      <c r="B12" s="4">
         <v>7</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>8</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>9</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>10</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <v>11</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="4">
         <v>12</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="4">
         <v>13</v>
       </c>
       <c r="I12" t="s">
         <v>13</v>
       </c>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="5">
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="4">
         <v>1</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N12" s="4">
         <v>2</v>
       </c>
-      <c r="O12" s="5">
+      <c r="O12" s="4">
         <v>3</v>
       </c>
-      <c r="P12" s="5">
+      <c r="P12" s="4">
         <v>4</v>
       </c>
-      <c r="Q12" s="5">
+      <c r="Q12" s="4">
         <v>5</v>
       </c>
       <c r="R12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="2:18" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="4">
+    <row r="13" spans="2:21" ht="18.75">
+      <c r="B13" s="3">
         <v>14</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>15</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>16</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>17</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <v>18</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <v>19</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <v>20</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="3">
         <v>6</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="3">
         <v>7</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13" s="3">
         <v>8</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="3">
         <v>9</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O13" s="3">
         <v>10</v>
       </c>
-      <c r="P13" s="4">
+      <c r="P13" s="3">
         <v>11</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="Q13" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="2:18" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="4">
+      <c r="T13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" ht="18.75">
+      <c r="B14" s="3">
         <v>21</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>22</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>23</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>24</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <v>25</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <v>26</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="3">
         <v>27</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="3">
         <v>13</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="3">
         <v>14</v>
       </c>
-      <c r="M14" s="4">
+      <c r="M14" s="3">
         <v>15</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="3">
         <v>16</v>
       </c>
-      <c r="O14" s="4">
+      <c r="O14" s="3">
         <v>17</v>
       </c>
-      <c r="P14" s="4">
+      <c r="P14" s="3">
         <v>18</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="Q14" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="2:18" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="4">
+    <row r="15" spans="2:21" ht="18.75">
+      <c r="B15" s="3">
         <v>28</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>29</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>30</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="K15" s="4">
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="K15" s="3">
         <v>20</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="3">
         <v>21</v>
       </c>
-      <c r="M15" s="4">
+      <c r="M15" s="3">
         <v>22</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="3">
         <v>23</v>
       </c>
-      <c r="O15" s="4">
+      <c r="O15" s="3">
         <v>24</v>
       </c>
-      <c r="P15" s="4">
+      <c r="P15" s="3">
         <v>25</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="Q15" s="3">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="2:18" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="K16" s="4">
+    <row r="16" spans="2:21" ht="18.75">
+      <c r="K16" s="3">
         <v>27</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="3">
         <v>28</v>
       </c>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-    </row>
-    <row r="17" spans="2:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="2:12" ht="18.75">
       <c r="D17" t="s">
         <v>9</v>
       </c>
-      <c r="K17" s="2"/>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="2:12" ht="24" x14ac:dyDescent="0.25">
-      <c r="B18" s="8" t="s">
+      <c r="K17" s="1"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="2:12" ht="24">
+      <c r="B18" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="H18" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4">
+    <row r="19" spans="2:12" ht="18.75">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3">
         <v>1</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="3">
         <v>2</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="3">
         <v>3</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="2:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="4">
+    <row r="20" spans="2:12" ht="18.75">
+      <c r="B20" s="3">
         <v>5</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>6</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <v>7</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <v>8</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="3">
         <v>9</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="3">
         <v>10</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="4">
+    <row r="21" spans="2:12" ht="18.75">
+      <c r="B21" s="3">
         <v>12</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>13</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>14</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <v>15</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="3">
         <v>16</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="3">
         <v>17</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="4">
+    <row r="22" spans="2:12" ht="18.75">
+      <c r="B22" s="3">
         <v>19</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <v>20</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="5">
         <v>21</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="5">
         <v>22</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="5">
         <v>23</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="5">
         <v>24</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="5">
         <v>25</v>
       </c>
       <c r="I22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="2:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="6">
+    <row r="23" spans="2:12" ht="18.75">
+      <c r="B23" s="5">
         <v>26</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <v>27</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="5">
         <v>28</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="5">
         <v>29</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="5">
         <v>30</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="5">
         <v>31</v>
       </c>
-      <c r="H23" s="6"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H23" s="5"/>
+    </row>
+    <row r="25" spans="2:12">
       <c r="F25" t="s">
         <v>15</v>
       </c>
@@ -1189,24 +1229,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
